--- a/assets/xlsx/decision_assistance.xlsx
+++ b/assets/xlsx/decision_assistance.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE8DAE-EBCB-4334-907E-D70AA4E50EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC4C40-3A0A-49B6-ABD0-24254A3F7009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE328577-2E2F-44D0-8478-9102DA545426}"/>
+    <workbookView xWindow="2655" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{DE328577-2E2F-44D0-8478-9102DA545426}"/>
   </bookViews>
   <sheets>
     <sheet name="의사결정 매트릭스" sheetId="1" r:id="rId1"/>
     <sheet name="의사결정 트리" sheetId="2" r:id="rId2"/>
+    <sheet name="아이젠하워 매트릭스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +206,46 @@
   </si>
   <si>
     <t>전부 YES 이거나, 만족스러울 정도로 YES가 많은 옵션을 택해 실행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② 긴급하지 않지만 중요한 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 긴급하고 중요한 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③ 긴급하지만 중요하지 않은 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ 긴급하지 않고 중요하지도 않은 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do : Do it now. 지금 당장 하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decide : Schedule a time. 언제 할지 결정하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delegate : 위임하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete : Eliminate. 제거하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +322,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +374,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -325,13 +428,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,13 +546,145 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -384,17 +699,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -730,21 +1039,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.125" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="4.5" customHeight="1"/>
+    <row r="2" spans="2:7" ht="20.25">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="7.5" customHeight="1"/>
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -764,7 +1073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="31.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,7 +1083,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="31.5" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -784,7 +1093,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="31.5" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,7 +1103,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="31.5" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +1113,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -836,72 +1145,72 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="10" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="6" customHeight="1"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="3.75" customHeight="1"/>
+    <row r="9" spans="2:2">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="3.75" customHeight="1"/>
+    <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -930,23 +1239,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="27" spans="2:10">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -988,7 +1297,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1310,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1014,7 +1323,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1336,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +1349,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1053,13 +1362,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="5.25" customHeight="1"/>
+    <row r="38" spans="2:10">
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1101,7 +1410,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1114,7 +1423,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1436,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1140,7 +1449,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1153,7 +1462,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
@@ -1166,7 +1475,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" s="9" t="s">
         <v>44</v>
       </c>
@@ -1174,11 +1483,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C39:J44">
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="YES">
-      <formula>LEFT(C39,LEN("YES"))="YES"</formula>
-    </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="NO">
       <formula>LEFT(C39,LEN("NO"))="NO"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="YES">
+      <formula>LEFT(C39,LEN("YES"))="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1188,4 +1497,447 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5721079D-C9F9-4733-A6D6-98DED52F8F9D}">
+  <dimension ref="A2:R27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="1.875" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="19" max="19" width="2.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18">
+      <c r="A2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="D2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="L2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" s="20"/>
+      <c r="D3" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="20"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="20"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="20"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="20"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="20"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="20"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="20"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="20"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="20"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" ht="5.25" customHeight="1">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="20"/>
+      <c r="D14" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="L14" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="38"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="20"/>
+      <c r="D15" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="L15" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="20"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="20"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="20"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="20"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="20"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="20"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="20"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="20"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="2:18" ht="9.75" customHeight="1">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="2:18" ht="2.25" customHeight="1">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="R27" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/xlsx/decision_assistance.xlsx
+++ b/assets/xlsx/decision_assistance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC4C40-3A0A-49B6-ABD0-24254A3F7009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70716F68-28DA-4369-9862-246FC4939EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{DE328577-2E2F-44D0-8478-9102DA545426}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE328577-2E2F-44D0-8478-9102DA545426}"/>
   </bookViews>
   <sheets>
     <sheet name="의사결정 매트릭스" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,22 +557,22 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -590,40 +590,37 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1037,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF291D8D-AF46-4C96-9E1E-7105C833DEC1}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1539,34 +1536,29 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="20"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="L3" s="42" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="20"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
+      <c r="J4" s="32"/>
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -1578,12 +1570,7 @@
     <row r="5" spans="1:18">
       <c r="B5" s="20"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="J5" s="32"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -1595,12 +1582,7 @@
     <row r="6" spans="1:18">
       <c r="B6" s="20"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="J6" s="32"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -1612,12 +1594,7 @@
     <row r="7" spans="1:18">
       <c r="B7" s="20"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="32"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -1629,12 +1606,7 @@
     <row r="8" spans="1:18">
       <c r="B8" s="20"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="32"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -1646,12 +1618,7 @@
     <row r="9" spans="1:18">
       <c r="B9" s="20"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
+      <c r="J9" s="32"/>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -1663,12 +1630,7 @@
     <row r="10" spans="1:18">
       <c r="B10" s="20"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="32"/>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -1680,12 +1642,7 @@
     <row r="11" spans="1:18">
       <c r="B11" s="20"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="32"/>
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -1696,13 +1653,13 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="20"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
       <c r="L12" s="17"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1716,45 +1673,45 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="20"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="L14" s="48" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="L14" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="20"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="L15" s="39" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="L15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="20"/>
